--- a/Files/TestData.xlsx
+++ b/Files/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14220" windowHeight="7215" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CommonData" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="84">
   <si>
     <t>TC_ID</t>
   </si>
@@ -35,33 +35,6 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>CD10</t>
-  </si>
-  <si>
-    <t>CD11</t>
-  </si>
-  <si>
-    <t>CD12</t>
-  </si>
-  <si>
-    <t>CD13</t>
-  </si>
-  <si>
-    <t>CD14</t>
-  </si>
-  <si>
-    <t>CD15</t>
-  </si>
-  <si>
-    <t>CD16</t>
-  </si>
-  <si>
-    <t>CD17</t>
-  </si>
-  <si>
-    <t>CD18</t>
-  </si>
-  <si>
     <t>#CD1</t>
   </si>
   <si>
@@ -78,21 +51,6 @@
   </si>
   <si>
     <t>CD4</t>
-  </si>
-  <si>
-    <t>CD5</t>
-  </si>
-  <si>
-    <t>CD6</t>
-  </si>
-  <si>
-    <t>CD7</t>
-  </si>
-  <si>
-    <t>CD8</t>
-  </si>
-  <si>
-    <t>CD9</t>
   </si>
   <si>
     <t>Iteration</t>
@@ -410,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -864,6 +822,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -890,7 +874,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -939,13 +922,10 @@
     <xf numFmtId="1" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -960,6 +940,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1275,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,9 +1270,11 @@
     <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1298,140 +1284,60 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1439,6 +1345,9 @@
       <formula1>"Chrome,Mozila,IE"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1447,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView topLeftCell="H16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,8 +1367,8 @@
     <col min="3" max="3" width="11.625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.75" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.625" style="7" bestFit="1" customWidth="1"/>
@@ -1477,351 +1386,351 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="J1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="P1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="T1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" s="18" t="s">
+      <c r="U1" s="17"/>
+    </row>
+    <row r="2" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="74">
+        <v>1</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="U1" s="18"/>
-    </row>
-    <row r="2" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="78">
-        <v>1</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="6"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="78">
-        <v>1</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-    </row>
-    <row r="4" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="78">
-        <v>1</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-    </row>
-    <row r="5" spans="1:21" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="78">
-        <v>1</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
+    <row r="3" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="74">
+        <v>1</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+    </row>
+    <row r="4" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="74">
+        <v>1</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="60"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+    </row>
+    <row r="5" spans="1:21" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="74">
+        <v>1</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="60"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
     </row>
     <row r="6" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="78">
+      <c r="A6" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="74">
         <v>2</v>
       </c>
-      <c r="C6" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
+      <c r="C6" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
       <c r="K6" s="6"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="78">
+    <row r="7" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="74">
         <v>2</v>
       </c>
-      <c r="C7" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-    </row>
-    <row r="8" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="78">
+      <c r="C7" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+    </row>
+    <row r="8" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="74">
         <v>2</v>
       </c>
-      <c r="C8" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-    </row>
-    <row r="9" spans="1:21" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="78">
+      <c r="C8" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="60"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+    </row>
+    <row r="9" spans="1:21" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="74">
         <v>2</v>
       </c>
-      <c r="C9" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-    </row>
-    <row r="10" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="60"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+    </row>
+    <row r="10" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="51">
-        <v>1</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="56">
+        <v>83</v>
+      </c>
+      <c r="B10" s="50">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="55">
         <v>5</v>
       </c>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="O10" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="44" t="str">
+      <c r="K10" s="43"/>
+      <c r="L10" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="43" t="str">
         <f>I10</f>
         <v>today</v>
       </c>
@@ -1829,49 +1738,49 @@
         <f>J10</f>
         <v>5</v>
       </c>
-      <c r="R10" s="44">
+      <c r="R10" s="43">
         <f>MIN(J10:J13)</f>
         <v>5</v>
       </c>
-      <c r="S10" s="44">
+      <c r="S10" s="43">
         <f>MAX(J10:J13)</f>
-        <v>40</v>
-      </c>
-      <c r="T10" s="44">
+        <v>280</v>
+      </c>
+      <c r="T10" s="43">
         <f>AVERAGE(J10:J13)</f>
-        <v>25</v>
-      </c>
-      <c r="U10" s="24"/>
-    </row>
-    <row r="11" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="U10" s="23"/>
+    </row>
+    <row r="11" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="52">
+        <v>83</v>
+      </c>
+      <c r="B11" s="51">
         <v>1</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="57">
+        <v>27</v>
+      </c>
+      <c r="J11" s="56">
         <v>25</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="P11" s="3" t="str">
         <f t="shared" ref="P11:P13" si="0">I11</f>
@@ -1887,43 +1796,43 @@
       </c>
       <c r="S11" s="3">
         <f>MAX(J10:J13)</f>
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="T11" s="3">
         <f>AVERAGE(J10:J13)</f>
-        <v>25</v>
-      </c>
-      <c r="U11" s="26"/>
-    </row>
-    <row r="12" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="U11" s="25"/>
+    </row>
+    <row r="12" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="52">
+        <v>83</v>
+      </c>
+      <c r="B12" s="51">
         <v>1</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="57">
+        <v>27</v>
+      </c>
+      <c r="J12" s="56">
         <v>30</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="P12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1939,43 +1848,43 @@
       </c>
       <c r="S12" s="3">
         <f>MAX(J10:J13)</f>
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="T12" s="3">
         <f>AVERAGE(J10:J13)</f>
-        <v>25</v>
-      </c>
-      <c r="U12" s="26"/>
-    </row>
-    <row r="13" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="U12" s="25"/>
+    </row>
+    <row r="13" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="52">
+        <v>83</v>
+      </c>
+      <c r="B13" s="51">
         <v>1</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="57">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="J13" s="56">
+        <v>280</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="P13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1983,7 +1892,7 @@
       </c>
       <c r="Q13" s="3">
         <f>J13</f>
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="R13" s="3">
         <f>MIN(J10:J13)</f>
@@ -1991,144 +1900,144 @@
       </c>
       <c r="S13" s="3">
         <f>MAX(J10:J13)</f>
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="T13" s="3">
         <f>AVERAGE(J10:J13)</f>
-        <v>25</v>
-      </c>
-      <c r="U13" s="26"/>
-    </row>
-    <row r="14" spans="1:21" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="U13" s="25"/>
+    </row>
+    <row r="14" spans="1:21" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="53">
-        <v>1</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="58">
+        <v>83</v>
+      </c>
+      <c r="B14" s="52">
+        <v>1</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="57">
         <v>50</v>
       </c>
-      <c r="K14" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="29"/>
-    </row>
-    <row r="15" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="28"/>
+    </row>
+    <row r="15" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="51">
+        <v>83</v>
+      </c>
+      <c r="B15" s="50">
         <v>2</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="43" t="s">
+      <c r="C15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="55">
+        <v>5</v>
+      </c>
+      <c r="K15" s="43"/>
+      <c r="L15" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="56">
-        <v>15</v>
-      </c>
-      <c r="K15" s="44"/>
-      <c r="L15" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="O15" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="P15" s="44" t="str">
+      <c r="P15" s="43" t="str">
         <f>I15</f>
         <v>10/11/16 @ 11:55 AM</v>
       </c>
       <c r="Q15" s="3">
         <f>J15</f>
-        <v>15</v>
-      </c>
-      <c r="R15" s="44">
+        <v>5</v>
+      </c>
+      <c r="R15" s="43">
         <f>MIN(J15:J18)</f>
-        <v>15</v>
-      </c>
-      <c r="S15" s="44">
+        <v>5</v>
+      </c>
+      <c r="S15" s="43">
         <f>MAX(J15:J18)</f>
-        <v>45</v>
-      </c>
-      <c r="T15" s="44">
+        <v>280</v>
+      </c>
+      <c r="T15" s="43">
         <f>AVERAGE(J15:J18)</f>
-        <v>30</v>
-      </c>
-      <c r="U15" s="24"/>
-    </row>
-    <row r="16" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="U15" s="23"/>
+    </row>
+    <row r="16" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="52">
+        <v>83</v>
+      </c>
+      <c r="B16" s="51">
         <v>2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
       <c r="I16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" s="57">
+        <v>73</v>
+      </c>
+      <c r="J16" s="56">
         <v>25</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O16" s="71" t="s">
-        <v>92</v>
+        <v>38</v>
+      </c>
+      <c r="O16" s="67" t="s">
+        <v>78</v>
       </c>
       <c r="P16" s="3" t="str">
         <f t="shared" ref="P16:P18" si="1">I16</f>
@@ -2140,47 +2049,47 @@
       </c>
       <c r="R16" s="3">
         <f>MIN(J15:J18)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S16" s="3">
         <f>MAX(J15:J18)</f>
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="T16" s="3">
         <f>AVERAGE(J15:J18)</f>
-        <v>30</v>
-      </c>
-      <c r="U16" s="26"/>
-    </row>
-    <row r="17" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="U16" s="25"/>
+    </row>
+    <row r="17" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="52">
+        <v>83</v>
+      </c>
+      <c r="B17" s="51">
         <v>2</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
       <c r="I17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J17" s="57">
-        <v>35</v>
+        <v>74</v>
+      </c>
+      <c r="J17" s="56">
+        <v>30</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O17" s="71" t="s">
-        <v>92</v>
+        <v>38</v>
+      </c>
+      <c r="O17" s="67" t="s">
+        <v>78</v>
       </c>
       <c r="P17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2188,51 +2097,51 @@
       </c>
       <c r="Q17" s="3">
         <f>J17</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R17" s="3">
         <f>MIN(J15:J18)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S17" s="3">
         <f>MAX(J15:J18)</f>
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="T17" s="3">
         <f>AVERAGE(J15:J18)</f>
-        <v>30</v>
-      </c>
-      <c r="U17" s="26"/>
-    </row>
-    <row r="18" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="U17" s="25"/>
+    </row>
+    <row r="18" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="52">
+        <v>83</v>
+      </c>
+      <c r="B18" s="51">
         <v>2</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" s="57">
-        <v>45</v>
+        <v>75</v>
+      </c>
+      <c r="J18" s="56">
+        <v>280</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O18" s="71" t="s">
-        <v>92</v>
+        <v>38</v>
+      </c>
+      <c r="O18" s="67" t="s">
+        <v>78</v>
       </c>
       <c r="P18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2240,152 +2149,152 @@
       </c>
       <c r="Q18" s="3">
         <f>J18</f>
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="R18" s="3">
         <f>MIN(J15:J18)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S18" s="3">
         <f>MAX(J15:J18)</f>
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="T18" s="3">
         <f>AVERAGE(J15:J18)</f>
-        <v>30</v>
-      </c>
-      <c r="U18" s="26"/>
-    </row>
-    <row r="19" spans="1:21" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="U18" s="25"/>
+    </row>
+    <row r="19" spans="1:21" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="53">
+        <v>83</v>
+      </c>
+      <c r="B19" s="52">
         <v>2</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="J19" s="58">
+      <c r="C19" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="57">
         <v>50</v>
       </c>
-      <c r="K19" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="29"/>
-    </row>
-    <row r="20" spans="1:21" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="28"/>
+    </row>
+    <row r="20" spans="1:21" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="51">
+        <v>83</v>
+      </c>
+      <c r="B20" s="50">
         <v>3</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I20" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" s="56">
-        <v>15</v>
-      </c>
-      <c r="K20" s="44"/>
-      <c r="L20" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="O20" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="P20" s="44" t="str">
+      <c r="C20" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="55">
+        <v>5</v>
+      </c>
+      <c r="K20" s="43"/>
+      <c r="L20" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" s="43" t="str">
         <f>I20</f>
         <v>10/9/16 @ 11:55 AM</v>
       </c>
       <c r="Q20" s="3">
         <f>J20</f>
-        <v>15</v>
-      </c>
-      <c r="R20" s="44">
+        <v>5</v>
+      </c>
+      <c r="R20" s="43">
         <f>MIN(J20:J23)</f>
-        <v>15</v>
-      </c>
-      <c r="S20" s="44">
+        <v>5</v>
+      </c>
+      <c r="S20" s="43">
         <f>MAX(J20:J23)</f>
-        <v>45</v>
-      </c>
-      <c r="T20" s="44">
+        <v>280</v>
+      </c>
+      <c r="T20" s="43">
         <f>AVERAGE(J20:J23)</f>
-        <v>30</v>
-      </c>
-      <c r="U20" s="24"/>
-    </row>
-    <row r="21" spans="1:21" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="U20" s="23"/>
+    </row>
+    <row r="21" spans="1:21" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="52">
+        <v>83</v>
+      </c>
+      <c r="B21" s="51">
         <v>3</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="J21" s="57">
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="56">
         <v>25</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O21" s="71" t="s">
-        <v>85</v>
+        <v>38</v>
+      </c>
+      <c r="O21" s="67" t="s">
+        <v>71</v>
       </c>
       <c r="P21" s="3" t="str">
         <f t="shared" ref="P21:P23" si="2">I21</f>
@@ -2397,47 +2306,47 @@
       </c>
       <c r="R21" s="3">
         <f>MIN(J20:J23)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S21" s="3">
         <f>MAX(J20:J23)</f>
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="T21" s="3">
         <f>AVERAGE(J20:J23)</f>
-        <v>30</v>
-      </c>
-      <c r="U21" s="26"/>
-    </row>
-    <row r="22" spans="1:21" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="U21" s="25"/>
+    </row>
+    <row r="22" spans="1:21" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="52">
+        <v>83</v>
+      </c>
+      <c r="B22" s="51">
         <v>3</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="J22" s="57">
-        <v>35</v>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="56">
+        <v>30</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O22" s="71" t="s">
-        <v>85</v>
+        <v>38</v>
+      </c>
+      <c r="O22" s="67" t="s">
+        <v>71</v>
       </c>
       <c r="P22" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2445,51 +2354,51 @@
       </c>
       <c r="Q22" s="3">
         <f>J22</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R22" s="3">
         <f>MIN(J20:J23)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S22" s="3">
         <f>MAX(J20:J23)</f>
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="T22" s="3">
         <f>AVERAGE(J20:J23)</f>
-        <v>30</v>
-      </c>
-      <c r="U22" s="26"/>
-    </row>
-    <row r="23" spans="1:21" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="U22" s="25"/>
+    </row>
+    <row r="23" spans="1:21" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="52">
+        <v>83</v>
+      </c>
+      <c r="B23" s="51">
         <v>3</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="J23" s="57">
-        <v>45</v>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="56">
+        <v>280</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O23" s="71" t="s">
-        <v>85</v>
+        <v>38</v>
+      </c>
+      <c r="O23" s="67" t="s">
+        <v>71</v>
       </c>
       <c r="P23" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2497,141 +2406,141 @@
       </c>
       <c r="Q23" s="3">
         <f>J23</f>
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="R23" s="3">
         <f>MIN(J20:J23)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S23" s="3">
         <f>MAX(J20:J23)</f>
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="T23" s="3">
         <f>AVERAGE(J20:J23)</f>
-        <v>30</v>
-      </c>
-      <c r="U23" s="26"/>
-    </row>
-    <row r="24" spans="1:21" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="U23" s="25"/>
+    </row>
+    <row r="24" spans="1:21" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="53">
+        <v>83</v>
+      </c>
+      <c r="B24" s="52">
         <v>3</v>
       </c>
-      <c r="C24" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="J24" s="58">
+      <c r="C24" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="57">
         <v>50</v>
       </c>
-      <c r="K24" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="29"/>
-    </row>
-    <row r="25" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="72">
-        <v>1</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I25" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="56">
-        <v>15</v>
-      </c>
-      <c r="K25" s="44"/>
-      <c r="L25" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44" t="str">
+      <c r="K24" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="28"/>
+    </row>
+    <row r="25" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="68">
+        <v>1</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="55">
+        <v>5</v>
+      </c>
+      <c r="K25" s="43"/>
+      <c r="L25" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43" t="str">
         <f ca="1">"Daily Report as of " &amp; TEXT(TODAY(),"yyyy-mm-dd")</f>
         <v>Daily Report as of 2016-10-13</v>
       </c>
-      <c r="O25" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="P25" s="44" t="str">
+      <c r="O25" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" s="43" t="str">
         <f>I25</f>
         <v>today</v>
       </c>
       <c r="Q25" s="3">
         <f>J25</f>
-        <v>15</v>
-      </c>
-      <c r="R25" s="44">
+        <v>5</v>
+      </c>
+      <c r="R25" s="43">
         <f>MIN(J25:J28)</f>
-        <v>15</v>
-      </c>
-      <c r="S25" s="44">
+        <v>5</v>
+      </c>
+      <c r="S25" s="43">
         <f>MAX(J25:J28)</f>
-        <v>45</v>
-      </c>
-      <c r="T25" s="44">
+        <v>280</v>
+      </c>
+      <c r="T25" s="43">
         <f>AVERAGE(J25:J28)</f>
-        <v>30</v>
-      </c>
-      <c r="U25" s="24"/>
-    </row>
-    <row r="26" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="73">
+        <v>85</v>
+      </c>
+      <c r="U25" s="23"/>
+    </row>
+    <row r="26" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="69">
         <v>1</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J26" s="57">
+        <v>27</v>
+      </c>
+      <c r="J26" s="56">
         <v>25</v>
       </c>
       <c r="K26" s="3"/>
@@ -2642,7 +2551,7 @@
         <v>Daily Report as of 2016-10-13</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="P26" s="3" t="str">
         <f t="shared" ref="P26:P28" si="3">I26</f>
@@ -2654,38 +2563,38 @@
       </c>
       <c r="R26" s="3">
         <f>MIN(J25:J28)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S26" s="3">
         <f>MAX(J25:J28)</f>
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="T26" s="3">
         <f>AVERAGE(J25:J28)</f>
-        <v>30</v>
-      </c>
-      <c r="U26" s="26"/>
-    </row>
-    <row r="27" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="73">
+        <v>85</v>
+      </c>
+      <c r="U26" s="25"/>
+    </row>
+    <row r="27" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="69">
         <v>1</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
       <c r="I27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J27" s="57">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="J27" s="56">
+        <v>30</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -2695,7 +2604,7 @@
         <v>Daily Report as of 2016-10-13</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="P27" s="3" t="str">
         <f t="shared" si="3"/>
@@ -2703,42 +2612,42 @@
       </c>
       <c r="Q27" s="3">
         <f>J27</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R27" s="3">
         <f>MIN(J25:J28)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S27" s="3">
         <f>MAX(J25:J28)</f>
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="T27" s="3">
         <f>AVERAGE(J25:J28)</f>
-        <v>30</v>
-      </c>
-      <c r="U27" s="26"/>
-    </row>
-    <row r="28" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="73">
+        <v>85</v>
+      </c>
+      <c r="U27" s="25"/>
+    </row>
+    <row r="28" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="69">
         <v>1</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
       <c r="I28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J28" s="57">
-        <v>45</v>
+        <v>27</v>
+      </c>
+      <c r="J28" s="56">
+        <v>280</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -2748,7 +2657,7 @@
         <v>Daily Report as of 2016-10-13</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="P28" s="3" t="str">
         <f t="shared" si="3"/>
@@ -2756,141 +2665,141 @@
       </c>
       <c r="Q28" s="3">
         <f>J28</f>
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="R28" s="3">
         <f>MIN(J25:J28)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S28" s="3">
         <f>MAX(J25:J28)</f>
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="T28" s="3">
         <f>AVERAGE(J25:J28)</f>
-        <v>30</v>
-      </c>
-      <c r="U28" s="26"/>
-    </row>
-    <row r="29" spans="1:21" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="74">
-        <v>1</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="J29" s="58">
+        <v>85</v>
+      </c>
+      <c r="U28" s="25"/>
+    </row>
+    <row r="29" spans="1:21" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="70">
+        <v>1</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="57">
         <v>50</v>
       </c>
-      <c r="K29" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="29"/>
-    </row>
-    <row r="30" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="72">
+      <c r="K29" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="28"/>
+    </row>
+    <row r="30" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="68">
         <v>2</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I30" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="J30" s="56">
-        <v>15</v>
-      </c>
-      <c r="K30" s="44"/>
-      <c r="L30" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44" t="str">
+      <c r="C30" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="J30" s="55">
+        <v>5</v>
+      </c>
+      <c r="K30" s="43"/>
+      <c r="L30" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43" t="str">
         <f ca="1">"Daily Report as of " &amp; TEXT(TODAY(),"yyyy-mm-dd")</f>
         <v>Daily Report as of 2016-10-13</v>
       </c>
-      <c r="O30" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="P30" s="44" t="str">
+      <c r="O30" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="P30" s="43" t="str">
         <f>I30</f>
         <v>10/11/16 @ 11:55 AM</v>
       </c>
       <c r="Q30" s="3">
         <f>J30</f>
-        <v>15</v>
-      </c>
-      <c r="R30" s="44">
+        <v>5</v>
+      </c>
+      <c r="R30" s="43">
         <f>MIN(J30:J33)</f>
-        <v>15</v>
-      </c>
-      <c r="S30" s="44">
+        <v>5</v>
+      </c>
+      <c r="S30" s="43">
         <f>MAX(J30:J33)</f>
-        <v>45</v>
-      </c>
-      <c r="T30" s="44">
+        <v>280</v>
+      </c>
+      <c r="T30" s="43">
         <f>AVERAGE(J30:J33)</f>
-        <v>30</v>
-      </c>
-      <c r="U30" s="24"/>
-    </row>
-    <row r="31" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="73">
+        <v>85</v>
+      </c>
+      <c r="U30" s="23"/>
+    </row>
+    <row r="31" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="69">
         <v>2</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J31" s="57">
+        <v>73</v>
+      </c>
+      <c r="J31" s="56">
         <v>25</v>
       </c>
       <c r="K31" s="3"/>
@@ -2900,8 +2809,8 @@
         <f ca="1">"Daily Report as of " &amp; TEXT(TODAY(),"yyyy-mm-dd")</f>
         <v>Daily Report as of 2016-10-13</v>
       </c>
-      <c r="O31" s="71" t="s">
-        <v>92</v>
+      <c r="O31" s="67" t="s">
+        <v>78</v>
       </c>
       <c r="P31" s="3" t="str">
         <f t="shared" ref="P31:P33" si="4">I31</f>
@@ -2913,38 +2822,38 @@
       </c>
       <c r="R31" s="3">
         <f>MIN(J30:J33)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S31" s="3">
         <f>MAX(J30:J33)</f>
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="T31" s="3">
         <f>AVERAGE(J30:J33)</f>
-        <v>30</v>
-      </c>
-      <c r="U31" s="26"/>
-    </row>
-    <row r="32" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="73">
+        <v>85</v>
+      </c>
+      <c r="U31" s="25"/>
+    </row>
+    <row r="32" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="69">
         <v>2</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
       <c r="I32" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J32" s="57">
-        <v>35</v>
+        <v>74</v>
+      </c>
+      <c r="J32" s="56">
+        <v>30</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -2953,8 +2862,8 @@
         <f ca="1">"Daily Report as of " &amp; TEXT(TODAY(),"yyyy-mm-dd")</f>
         <v>Daily Report as of 2016-10-13</v>
       </c>
-      <c r="O32" s="71" t="s">
-        <v>92</v>
+      <c r="O32" s="67" t="s">
+        <v>78</v>
       </c>
       <c r="P32" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2962,42 +2871,42 @@
       </c>
       <c r="Q32" s="3">
         <f>J32</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R32" s="3">
         <f>MIN(J30:J33)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S32" s="3">
         <f>MAX(J30:J33)</f>
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="T32" s="3">
         <f>AVERAGE(J30:J33)</f>
-        <v>30</v>
-      </c>
-      <c r="U32" s="26"/>
-    </row>
-    <row r="33" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="73">
+        <v>85</v>
+      </c>
+      <c r="U32" s="25"/>
+    </row>
+    <row r="33" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="69">
         <v>2</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
       <c r="I33" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J33" s="57">
-        <v>45</v>
+        <v>75</v>
+      </c>
+      <c r="J33" s="56">
+        <v>280</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -3006,8 +2915,8 @@
         <f ca="1">"Daily Report as of " &amp; TEXT(TODAY(),"yyyy-mm-dd")</f>
         <v>Daily Report as of 2016-10-13</v>
       </c>
-      <c r="O33" s="71" t="s">
-        <v>92</v>
+      <c r="O33" s="67" t="s">
+        <v>78</v>
       </c>
       <c r="P33" s="3" t="str">
         <f t="shared" si="4"/>
@@ -3015,150 +2924,150 @@
       </c>
       <c r="Q33" s="3">
         <f>J33</f>
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="R33" s="3">
         <f>MIN(J30:J33)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S33" s="3">
         <f>MAX(J30:J33)</f>
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="T33" s="3">
         <f>AVERAGE(J30:J33)</f>
-        <v>30</v>
-      </c>
-      <c r="U33" s="26"/>
-    </row>
-    <row r="34" spans="1:21" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="74">
+        <v>85</v>
+      </c>
+      <c r="U33" s="25"/>
+    </row>
+    <row r="34" spans="1:21" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="70">
         <v>2</v>
       </c>
-      <c r="C34" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="J34" s="58">
+      <c r="C34" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="J34" s="57">
         <v>50</v>
       </c>
-      <c r="K34" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="29"/>
-    </row>
-    <row r="35" spans="1:21" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="72">
+      <c r="K34" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="28"/>
+    </row>
+    <row r="35" spans="1:21" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="68">
         <v>3</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I35" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="J35" s="56">
-        <v>15</v>
-      </c>
-      <c r="K35" s="44"/>
-      <c r="L35" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="O35" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="P35" s="44" t="str">
+      <c r="C35" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="J35" s="55">
+        <v>5</v>
+      </c>
+      <c r="K35" s="43"/>
+      <c r="L35" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="O35" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" s="43" t="str">
         <f>I35</f>
         <v>10/9/16 @ 11:55 AM</v>
       </c>
       <c r="Q35" s="3">
         <f>J35</f>
-        <v>15</v>
-      </c>
-      <c r="R35" s="44">
+        <v>5</v>
+      </c>
+      <c r="R35" s="43">
         <f>MIN(J35:J38)</f>
-        <v>15</v>
-      </c>
-      <c r="S35" s="44">
+        <v>5</v>
+      </c>
+      <c r="S35" s="43">
         <f>MAX(J35:J38)</f>
-        <v>45</v>
-      </c>
-      <c r="T35" s="44">
+        <v>280</v>
+      </c>
+      <c r="T35" s="43">
         <f>AVERAGE(J35:J38)</f>
-        <v>30</v>
-      </c>
-      <c r="U35" s="24"/>
-    </row>
-    <row r="36" spans="1:21" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="73">
+        <v>85</v>
+      </c>
+      <c r="U35" s="23"/>
+    </row>
+    <row r="36" spans="1:21" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="69">
         <v>3</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="J36" s="57">
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" s="56">
         <v>25</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O36" s="71" t="s">
-        <v>85</v>
+        <v>38</v>
+      </c>
+      <c r="O36" s="67" t="s">
+        <v>71</v>
       </c>
       <c r="P36" s="3" t="str">
         <f t="shared" ref="P36:P38" si="5">I36</f>
@@ -3170,47 +3079,47 @@
       </c>
       <c r="R36" s="3">
         <f>MIN(J35:J38)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S36" s="3">
         <f>MAX(J35:J38)</f>
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="T36" s="3">
         <f>AVERAGE(J35:J38)</f>
-        <v>30</v>
-      </c>
-      <c r="U36" s="26"/>
-    </row>
-    <row r="37" spans="1:21" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="73">
+        <v>85</v>
+      </c>
+      <c r="U36" s="25"/>
+    </row>
+    <row r="37" spans="1:21" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="69">
         <v>3</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="J37" s="57">
-        <v>35</v>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="J37" s="56">
+        <v>30</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O37" s="71" t="s">
-        <v>85</v>
+        <v>38</v>
+      </c>
+      <c r="O37" s="67" t="s">
+        <v>71</v>
       </c>
       <c r="P37" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3218,51 +3127,51 @@
       </c>
       <c r="Q37" s="3">
         <f>J37</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R37" s="3">
         <f>MIN(J35:J38)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S37" s="3">
         <f>MAX(J35:J38)</f>
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="T37" s="3">
         <f>AVERAGE(J35:J38)</f>
-        <v>30</v>
-      </c>
-      <c r="U37" s="26"/>
-    </row>
-    <row r="38" spans="1:21" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="73">
+        <v>85</v>
+      </c>
+      <c r="U37" s="25"/>
+    </row>
+    <row r="38" spans="1:21" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="69">
         <v>3</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="J38" s="57">
-        <v>45</v>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" s="56">
+        <v>280</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O38" s="71" t="s">
-        <v>85</v>
+        <v>38</v>
+      </c>
+      <c r="O38" s="67" t="s">
+        <v>71</v>
       </c>
       <c r="P38" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3270,138 +3179,139 @@
       </c>
       <c r="Q38" s="3">
         <f>J38</f>
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="R38" s="3">
         <f>MIN(J35:J38)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S38" s="3">
         <f>MAX(J35:J38)</f>
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="T38" s="3">
         <f>AVERAGE(J35:J38)</f>
-        <v>30</v>
-      </c>
-      <c r="U38" s="26"/>
-    </row>
-    <row r="39" spans="1:21" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="74">
+        <v>85</v>
+      </c>
+      <c r="U38" s="25"/>
+    </row>
+    <row r="39" spans="1:21" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="70">
         <v>3</v>
       </c>
-      <c r="C39" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="J39" s="58">
+      <c r="C39" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="J39" s="57">
         <v>50</v>
       </c>
-      <c r="K39" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="49"/>
-      <c r="R39" s="49"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="49"/>
-      <c r="U39" s="29"/>
-    </row>
-    <row r="40" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" s="72">
-        <v>1</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H40" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I40" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="J40" s="56">
-        <v>15</v>
-      </c>
-      <c r="K40" s="44"/>
-      <c r="L40" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44" t="str">
+      <c r="K39" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="28"/>
+    </row>
+    <row r="40" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="68">
+        <v>1</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I40" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" s="55">
+        <v>5</v>
+      </c>
+      <c r="K40" s="43"/>
+      <c r="L40" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43" t="str">
         <f ca="1">"Monthly Report as of for " &amp; TEXT(TODAY(),"mmmm")</f>
         <v>Monthly Report as of for October</v>
       </c>
-      <c r="O40" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="P40" s="44" t="str">
+      <c r="O40" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="P40" s="43" t="str">
         <f>I40</f>
         <v>today</v>
       </c>
       <c r="Q40" s="3">
         <f>J40</f>
-        <v>15</v>
-      </c>
-      <c r="R40" s="44">
         <v>5</v>
       </c>
-      <c r="S40" s="44">
-        <v>150</v>
-      </c>
-      <c r="T40" s="44"/>
-      <c r="U40" s="24"/>
-    </row>
-    <row r="41" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="B41" s="73">
+      <c r="R40" s="43">
+        <v>5</v>
+      </c>
+      <c r="S40" s="56">
+        <f>MAX(J40:J43)</f>
+        <v>280</v>
+      </c>
+      <c r="T40" s="43"/>
+      <c r="U40" s="23"/>
+    </row>
+    <row r="41" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="69">
         <v>1</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
       <c r="I41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J41" s="57">
+        <v>27</v>
+      </c>
+      <c r="J41" s="56">
         <v>25</v>
       </c>
       <c r="K41" s="3"/>
@@ -3411,8 +3321,8 @@
         <f ca="1">"Monthly Report as of for " &amp; TEXT(TODAY(),"mmmm")</f>
         <v>Monthly Report as of for October</v>
       </c>
-      <c r="O41" s="71" t="s">
-        <v>61</v>
+      <c r="O41" s="67" t="s">
+        <v>47</v>
       </c>
       <c r="P41" s="3" t="str">
         <f t="shared" ref="P41:P43" si="6">I41</f>
@@ -3425,28 +3335,28 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
-      <c r="U41" s="26"/>
-    </row>
-    <row r="42" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" s="73">
+      <c r="U41" s="25"/>
+    </row>
+    <row r="42" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="69">
         <v>1</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
       <c r="I42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J42" s="57">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="J42" s="56">
+        <v>30</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -3456,7 +3366,7 @@
         <v>Monthly Report as of for October</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="P42" s="3" t="str">
         <f t="shared" si="6"/>
@@ -3464,33 +3374,33 @@
       </c>
       <c r="Q42" s="3">
         <f>J42</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
-      <c r="U42" s="26"/>
-    </row>
-    <row r="43" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="B43" s="73">
+      <c r="U42" s="25"/>
+    </row>
+    <row r="43" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="69">
         <v>1</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
       <c r="I43" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J43" s="57">
-        <v>45</v>
+        <v>27</v>
+      </c>
+      <c r="J43" s="56">
+        <v>280</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -3500,7 +3410,7 @@
         <v>Monthly Report as of for October</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="P43" s="3" t="str">
         <f t="shared" si="6"/>
@@ -3508,126 +3418,127 @@
       </c>
       <c r="Q43" s="3">
         <f>J43</f>
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
-      <c r="U43" s="26"/>
-    </row>
-    <row r="44" spans="1:21" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="77" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" s="74">
-        <v>1</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="J44" s="58">
+      <c r="U43" s="25"/>
+    </row>
+    <row r="44" spans="1:21" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="70">
+        <v>1</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="57">
         <v>50</v>
       </c>
-      <c r="K44" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="49"/>
-      <c r="P44" s="49"/>
-      <c r="Q44" s="49"/>
-      <c r="R44" s="49"/>
-      <c r="S44" s="49"/>
-      <c r="T44" s="49"/>
-      <c r="U44" s="29"/>
-    </row>
-    <row r="45" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="72">
+      <c r="K44" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="48"/>
+      <c r="U44" s="28"/>
+    </row>
+    <row r="45" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="68">
         <v>2</v>
       </c>
-      <c r="C45" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G45" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I45" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="J45" s="56">
-        <v>15</v>
-      </c>
-      <c r="K45" s="44"/>
-      <c r="L45" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44" t="str">
+      <c r="C45" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I45" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="J45" s="55">
+        <v>5</v>
+      </c>
+      <c r="K45" s="43"/>
+      <c r="L45" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43" t="str">
         <f ca="1">"Monthly Report as of for " &amp; TEXT(TODAY(),"mmmm")</f>
         <v>Monthly Report as of for October</v>
       </c>
-      <c r="O45" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="P45" s="44" t="str">
+      <c r="O45" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="P45" s="43" t="str">
         <f>I45</f>
         <v>10/11/16 @ 11:55 AM</v>
       </c>
       <c r="Q45" s="3">
         <v>5</v>
       </c>
-      <c r="R45" s="44">
+      <c r="R45" s="43">
         <v>5</v>
       </c>
-      <c r="S45" s="44">
-        <v>260</v>
-      </c>
-      <c r="T45" s="44"/>
-      <c r="U45" s="24"/>
-    </row>
-    <row r="46" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" s="73">
+      <c r="S45" s="56">
+        <f>MAX(J45:J48)</f>
+        <v>280</v>
+      </c>
+      <c r="T45" s="43"/>
+      <c r="U45" s="23"/>
+    </row>
+    <row r="46" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="69">
         <v>2</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
       <c r="I46" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J46" s="57">
+        <v>73</v>
+      </c>
+      <c r="J46" s="56">
         <v>25</v>
       </c>
       <c r="K46" s="3"/>
@@ -3637,8 +3548,8 @@
         <f ca="1">"Monthly Report as of for " &amp; TEXT(TODAY(),"mmmm")</f>
         <v>Monthly Report as of for October</v>
       </c>
-      <c r="O46" s="71" t="s">
-        <v>61</v>
+      <c r="O46" s="67" t="s">
+        <v>47</v>
       </c>
       <c r="P46" s="3" t="str">
         <f t="shared" ref="P46:P48" si="7">I46</f>
@@ -3651,28 +3562,28 @@
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
-      <c r="U46" s="26"/>
-    </row>
-    <row r="47" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="73">
+      <c r="U46" s="25"/>
+    </row>
+    <row r="47" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="69">
         <v>2</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
       <c r="I47" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J47" s="57">
-        <v>35</v>
+        <v>74</v>
+      </c>
+      <c r="J47" s="56">
+        <v>30</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -3681,8 +3592,8 @@
         <f ca="1">"Monthly Report as of for " &amp; TEXT(TODAY(),"mmmm")</f>
         <v>Monthly Report as of for October</v>
       </c>
-      <c r="O47" s="71" t="s">
-        <v>61</v>
+      <c r="O47" s="67" t="s">
+        <v>47</v>
       </c>
       <c r="P47" s="3" t="str">
         <f t="shared" si="7"/>
@@ -3690,33 +3601,33 @@
       </c>
       <c r="Q47" s="3">
         <f>J47</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
-      <c r="U47" s="26"/>
-    </row>
-    <row r="48" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="73">
+      <c r="U47" s="25"/>
+    </row>
+    <row r="48" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="69">
         <v>2</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
       <c r="I48" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J48" s="57">
-        <v>45</v>
+        <v>75</v>
+      </c>
+      <c r="J48" s="56">
+        <v>280</v>
       </c>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -3725,134 +3636,136 @@
         <f ca="1">"Monthly Report as of for " &amp; TEXT(TODAY(),"mmmm")</f>
         <v>Monthly Report as of for October</v>
       </c>
-      <c r="O48" s="71" t="s">
-        <v>61</v>
+      <c r="O48" s="67" t="s">
+        <v>47</v>
       </c>
       <c r="P48" s="3" t="str">
         <f t="shared" si="7"/>
         <v>10/11/16 @ 11:16 AM</v>
       </c>
       <c r="Q48" s="3">
-        <v>260</v>
+        <f>J48</f>
+        <v>280</v>
       </c>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
-      <c r="U48" s="26"/>
-    </row>
-    <row r="49" spans="1:21" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="77" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="74">
+      <c r="U48" s="25"/>
+    </row>
+    <row r="49" spans="1:21" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="70">
         <v>2</v>
       </c>
-      <c r="C49" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="J49" s="58">
+      <c r="C49" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="J49" s="57">
         <v>50</v>
       </c>
-      <c r="K49" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="L49" s="49"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="49"/>
-      <c r="O49" s="49"/>
-      <c r="P49" s="49"/>
-      <c r="Q49" s="49"/>
-      <c r="R49" s="49"/>
-      <c r="S49" s="49"/>
-      <c r="T49" s="49"/>
-      <c r="U49" s="29"/>
-    </row>
-    <row r="50" spans="1:21" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="72">
+      <c r="K49" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="48"/>
+      <c r="S49" s="48"/>
+      <c r="T49" s="48"/>
+      <c r="U49" s="28"/>
+    </row>
+    <row r="50" spans="1:21" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="68">
         <v>3</v>
       </c>
-      <c r="C50" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G50" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H50" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I50" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="J50" s="56">
-        <v>15</v>
-      </c>
-      <c r="K50" s="44"/>
-      <c r="L50" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="M50" s="44"/>
-      <c r="N50" s="44" t="str">
+      <c r="C50" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I50" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="J50" s="55">
+        <v>5</v>
+      </c>
+      <c r="K50" s="43"/>
+      <c r="L50" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43" t="str">
         <f ca="1">"Monthly Report as of for " &amp; TEXT(TODAY(),"mmmm")</f>
         <v>Monthly Report as of for October</v>
       </c>
-      <c r="O50" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="P50" s="44" t="str">
+      <c r="O50" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="P50" s="43" t="str">
         <f>I50</f>
         <v>10/9/16 @ 11:55 AM</v>
       </c>
       <c r="Q50" s="3">
         <v>5</v>
       </c>
-      <c r="R50" s="44">
+      <c r="R50" s="43">
         <v>5</v>
       </c>
-      <c r="S50" s="44">
-        <v>260</v>
-      </c>
-      <c r="T50" s="44"/>
-      <c r="U50" s="24"/>
-    </row>
-    <row r="51" spans="1:21" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="73">
+      <c r="S50" s="56">
+        <f>MAX(J50:J53)</f>
+        <v>280</v>
+      </c>
+      <c r="T50" s="43"/>
+      <c r="U50" s="23"/>
+    </row>
+    <row r="51" spans="1:21" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="69">
         <v>3</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="J51" s="57">
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="J51" s="56">
         <v>25</v>
       </c>
       <c r="K51" s="3"/>
@@ -3862,8 +3775,8 @@
         <f ca="1">"Monthly Report as of for " &amp; TEXT(TODAY(),"mmmm")</f>
         <v>Monthly Report as of for October</v>
       </c>
-      <c r="O51" s="71" t="s">
-        <v>61</v>
+      <c r="O51" s="67" t="s">
+        <v>47</v>
       </c>
       <c r="P51" s="3" t="str">
         <f t="shared" ref="P51:P53" si="8">I51</f>
@@ -3876,28 +3789,28 @@
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
-      <c r="U51" s="26"/>
-    </row>
-    <row r="52" spans="1:21" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" s="73">
+      <c r="U51" s="25"/>
+    </row>
+    <row r="52" spans="1:21" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="69">
         <v>3</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="J52" s="57">
-        <v>35</v>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="J52" s="56">
+        <v>30</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -3906,8 +3819,8 @@
         <f ca="1">"Monthly Report as of for " &amp; TEXT(TODAY(),"mmmm")</f>
         <v>Monthly Report as of for October</v>
       </c>
-      <c r="O52" s="71" t="s">
-        <v>61</v>
+      <c r="O52" s="67" t="s">
+        <v>47</v>
       </c>
       <c r="P52" s="3" t="str">
         <f t="shared" si="8"/>
@@ -3915,33 +3828,33 @@
       </c>
       <c r="Q52" s="3">
         <f>J52</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
-      <c r="U52" s="26"/>
-    </row>
-    <row r="53" spans="1:21" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="B53" s="73">
+      <c r="U52" s="25"/>
+    </row>
+    <row r="53" spans="1:21" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="69">
         <v>3</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="J53" s="57">
-        <v>45</v>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="J53" s="56">
+        <v>280</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -3950,113 +3863,114 @@
         <f ca="1">"Monthly Report as of for " &amp; TEXT(TODAY(),"mmmm")</f>
         <v>Monthly Report as of for October</v>
       </c>
-      <c r="O53" s="71" t="s">
-        <v>61</v>
+      <c r="O53" s="67" t="s">
+        <v>47</v>
       </c>
       <c r="P53" s="3" t="str">
         <f t="shared" si="8"/>
         <v>10/9/16 @ 11:20 AM</v>
       </c>
       <c r="Q53" s="3">
-        <v>260</v>
+        <f>J53</f>
+        <v>280</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
-      <c r="U53" s="26"/>
-    </row>
-    <row r="54" spans="1:21" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="77" t="s">
-        <v>94</v>
-      </c>
-      <c r="B54" s="74">
+      <c r="U53" s="25"/>
+    </row>
+    <row r="54" spans="1:21" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="70">
         <v>3</v>
       </c>
-      <c r="C54" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="J54" s="58">
+      <c r="C54" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="J54" s="57">
         <v>50</v>
       </c>
-      <c r="K54" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="49"/>
-      <c r="O54" s="49"/>
-      <c r="P54" s="49"/>
-      <c r="Q54" s="49"/>
-      <c r="R54" s="49"/>
-      <c r="S54" s="49"/>
-      <c r="T54" s="49"/>
-      <c r="U54" s="29"/>
-    </row>
-    <row r="55" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="B55" s="72">
-        <v>1</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G55" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H55" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I55" s="44"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="45"/>
-      <c r="M55" s="44"/>
-      <c r="N55" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="O55" s="71"/>
-      <c r="P55" s="44"/>
+      <c r="K54" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="48"/>
+      <c r="S54" s="48"/>
+      <c r="T54" s="48"/>
+      <c r="U54" s="28"/>
+    </row>
+    <row r="55" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="68">
+        <v>1</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H55" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I55" s="43"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="O55" s="67"/>
+      <c r="P55" s="43"/>
       <c r="Q55" s="3"/>
-      <c r="R55" s="44"/>
-      <c r="S55" s="44"/>
-      <c r="T55" s="44"/>
-      <c r="U55" s="24"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="43"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F5" r:id="rId2"/>
-    <hyperlink ref="F10" r:id="rId3"/>
-    <hyperlink ref="F15" r:id="rId4"/>
-    <hyperlink ref="F7" r:id="rId5"/>
-    <hyperlink ref="F9" r:id="rId6"/>
-    <hyperlink ref="F20" r:id="rId7"/>
-    <hyperlink ref="F25" r:id="rId8"/>
-    <hyperlink ref="F30" r:id="rId9"/>
-    <hyperlink ref="F35" r:id="rId10"/>
-    <hyperlink ref="F40" r:id="rId11"/>
-    <hyperlink ref="F45" r:id="rId12"/>
-    <hyperlink ref="F50" r:id="rId13"/>
-    <hyperlink ref="F55" r:id="rId14"/>
+    <hyperlink ref="F3" r:id="rId1" display="bps.brijendra@gmail.com"/>
+    <hyperlink ref="F5" r:id="rId2" display="bps.brijendra@gmail.com"/>
+    <hyperlink ref="F7" r:id="rId3" display="bps.brijendra@gmail.com"/>
+    <hyperlink ref="F9" r:id="rId4" display="bps.brijendra@gmail.com"/>
+    <hyperlink ref="F10" r:id="rId5" display="bps.brijendra@gmail.com"/>
+    <hyperlink ref="F15" r:id="rId6" display="bps.brijendra@gmail.com"/>
+    <hyperlink ref="F20" r:id="rId7" display="bps.brijendra@gmail.com"/>
+    <hyperlink ref="F25" r:id="rId8" display="bps.brijendra@gmail.com"/>
+    <hyperlink ref="F30" r:id="rId9" display="bps.brijendra@gmail.com"/>
+    <hyperlink ref="F35" r:id="rId10" display="bps.brijendra@gmail.com"/>
+    <hyperlink ref="F40" r:id="rId11" display="bps.brijendra@gmail.com"/>
+    <hyperlink ref="F45" r:id="rId12" display="bps.brijendra@gmail.com"/>
+    <hyperlink ref="F50" r:id="rId13" display="bps.brijendra@gmail.com"/>
+    <hyperlink ref="F55" r:id="rId14" display="bps.brijendra@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
@@ -4067,11 +3981,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N20" sqref="N20"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4079,9 +3993,10 @@
     <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.25" customWidth="1"/>
     <col min="3" max="3" width="5.375" customWidth="1"/>
-    <col min="4" max="4" width="4.375" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
-    <col min="6" max="8" width="4.125" customWidth="1"/>
+    <col min="4" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="4.125" customWidth="1"/>
     <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.25" bestFit="1" customWidth="1"/>
@@ -4097,112 +4012,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="J1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="P1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="T1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="U1" s="2"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="51">
-        <v>1</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="56">
+      <c r="A2" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="50">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="55">
         <v>70</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="44"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="43"/>
       <c r="N2" s="3" t="str">
         <f ca="1">"Daily Report as of " &amp; TEXT(TODAY(),"yyyy-mm-dd")</f>
         <v>Daily Report as of 2016-10-13</v>
       </c>
-      <c r="O2" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="44" t="str">
+      <c r="O2" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="43" t="str">
         <f>I2</f>
         <v>today</v>
       </c>
@@ -4210,37 +4125,37 @@
         <f>J2</f>
         <v>70</v>
       </c>
-      <c r="R2" s="44">
+      <c r="R2" s="43">
         <v>70</v>
       </c>
-      <c r="S2" s="44">
+      <c r="S2" s="43">
         <v>100</v>
       </c>
-      <c r="T2" s="44">
+      <c r="T2" s="43">
         <f>AVERAGE(J2:J5)</f>
         <v>85</v>
       </c>
-      <c r="U2" s="24"/>
+      <c r="U2" s="23"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="52">
+      <c r="A3" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="51">
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="57">
+        <v>27</v>
+      </c>
+      <c r="J3" s="56">
         <v>80</v>
       </c>
       <c r="K3" s="3"/>
@@ -4250,8 +4165,8 @@
         <f ca="1">"Monthly Report as of for " &amp; TEXT(TODAY(),"mmmm")</f>
         <v>Monthly Report as of for October</v>
       </c>
-      <c r="O3" s="31" t="s">
-        <v>61</v>
+      <c r="O3" s="30" t="s">
+        <v>47</v>
       </c>
       <c r="P3" s="3" t="str">
         <f>I3</f>
@@ -4264,37 +4179,37 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
-      <c r="U3" s="26"/>
+      <c r="U3" s="25"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="52">
+      <c r="A4" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="51">
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="57">
+        <v>27</v>
+      </c>
+      <c r="J4" s="56">
         <v>90</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="P4" s="3" t="str">
         <f>I4</f>
@@ -4314,34 +4229,34 @@
         <f>AVERAGE(J2:J5)</f>
         <v>85</v>
       </c>
-      <c r="U4" s="26"/>
+      <c r="U4" s="25"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="52">
+      <c r="A5" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="51">
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="57">
+        <v>27</v>
+      </c>
+      <c r="J5" s="56">
         <v>100</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="31"/>
+      <c r="O5" s="30"/>
       <c r="P5" s="3" t="str">
         <f>I5</f>
         <v>today</v>
@@ -4353,87 +4268,87 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="26"/>
+      <c r="U5" s="25"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="52">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="53">
-        <v>1</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="58">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="57">
         <v>120</v>
       </c>
-      <c r="K6" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="29"/>
+      <c r="K6" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="28"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="51">
-        <v>1</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="43" t="s">
+      <c r="A7" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="50">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="55">
+        <v>10</v>
+      </c>
+      <c r="K7" s="43"/>
+      <c r="L7" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="56">
-        <v>10</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" s="44"/>
+      <c r="M7" s="43"/>
       <c r="N7" s="3" t="str">
         <f ca="1">"Daily Report as of " &amp; TEXT(TODAY(),"yyyy-mm-dd")</f>
         <v>Daily Report as of 2016-10-13</v>
       </c>
-      <c r="O7" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" s="44" t="str">
+      <c r="O7" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="43" t="str">
         <f>I7</f>
         <v>10/6/16 @ 11:55 AM</v>
       </c>
@@ -4441,39 +4356,39 @@
         <f>J7</f>
         <v>10</v>
       </c>
-      <c r="R7" s="44">
+      <c r="R7" s="43">
         <f>MIN(J7:J10)</f>
         <v>10</v>
       </c>
-      <c r="S7" s="44">
+      <c r="S7" s="43">
         <f>MAX(J7:J10)</f>
         <v>40</v>
       </c>
-      <c r="T7" s="44">
+      <c r="T7" s="43">
         <f>AVERAGE(J7:J10)</f>
         <v>25</v>
       </c>
-      <c r="U7" s="24"/>
+      <c r="U7" s="23"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="52">
+      <c r="A8" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="51">
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="57">
+        <v>37</v>
+      </c>
+      <c r="J8" s="56">
         <v>20</v>
       </c>
       <c r="K8" s="3"/>
@@ -4483,8 +4398,8 @@
         <f ca="1">"Monthly Report as of for " &amp; TEXT(TODAY(),"mmmm")</f>
         <v>Monthly Report as of for October</v>
       </c>
-      <c r="O8" s="31" t="s">
-        <v>61</v>
+      <c r="O8" s="30" t="s">
+        <v>47</v>
       </c>
       <c r="P8" s="3" t="str">
         <f t="shared" ref="P8:P10" si="1">I8</f>
@@ -4506,35 +4421,35 @@
         <f>AVERAGE(J7:J10)</f>
         <v>25</v>
       </c>
-      <c r="U8" s="26"/>
+      <c r="U8" s="25"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="52">
+      <c r="A9" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="51">
         <v>1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
       <c r="I9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="57">
+        <v>44</v>
+      </c>
+      <c r="J9" s="56">
         <v>30</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="31" t="s">
-        <v>62</v>
+      <c r="O9" s="30" t="s">
+        <v>48</v>
       </c>
       <c r="P9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4556,27 +4471,27 @@
         <f>AVERAGE(J7:J10)</f>
         <v>25</v>
       </c>
-      <c r="U9" s="26"/>
+      <c r="U9" s="25"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="52">
+      <c r="A10" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="51">
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="57">
+        <v>45</v>
+      </c>
+      <c r="J10" s="56">
         <v>40</v>
       </c>
       <c r="K10" s="3"/>
@@ -4586,8 +4501,8 @@
         <f ca="1">"Monthly Report as of for " &amp; TEXT(TODAY(),"mmmm")</f>
         <v>Monthly Report as of for October</v>
       </c>
-      <c r="O10" s="31" t="s">
-        <v>61</v>
+      <c r="O10" s="30" t="s">
+        <v>47</v>
       </c>
       <c r="P10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4609,75 +4524,75 @@
         <f>AVERAGE(J7:J10)</f>
         <v>25</v>
       </c>
-      <c r="U10" s="26"/>
+      <c r="U10" s="25"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="53">
-        <v>1</v>
-      </c>
-      <c r="C11" s="27" t="s">
+      <c r="A11" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="52">
+        <v>1</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="58">
+      <c r="J11" s="57">
         <v>50</v>
       </c>
-      <c r="K11" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="29"/>
+      <c r="K11" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="28"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
-        <v>53</v>
+      <c r="A12" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="B12" s="10">
         <v>1</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="31"/>
+        <v>12</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="30"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="31"/>
+      <c r="M12" s="30"/>
       <c r="N12" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -4688,48 +4603,48 @@
       <c r="U12" s="3"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="50">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="51">
-        <v>1</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="56">
+      <c r="I13" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="55">
         <v>70</v>
       </c>
-      <c r="K13" s="44"/>
-      <c r="L13" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="44"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="43"/>
       <c r="N13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O13" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="P13" s="44" t="str">
+        <v>38</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="43" t="str">
         <f>I13</f>
         <v>today</v>
       </c>
@@ -4737,49 +4652,49 @@
         <f>J13</f>
         <v>70</v>
       </c>
-      <c r="R13" s="44">
+      <c r="R13" s="43">
         <f>MIN(J13:J16)</f>
         <v>70</v>
       </c>
-      <c r="S13" s="44">
+      <c r="S13" s="43">
         <f>MAX(J13:J16)</f>
         <v>100</v>
       </c>
-      <c r="T13" s="44">
+      <c r="T13" s="43">
         <f>AVERAGE(J13:J16)</f>
         <v>85</v>
       </c>
-      <c r="U13" s="24"/>
+      <c r="U13" s="23"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="52">
+      <c r="A14" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="51">
         <v>1</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="57">
+        <v>27</v>
+      </c>
+      <c r="J14" s="56">
         <v>80</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O14" s="31" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="O14" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="P14" s="3" t="str">
         <f t="shared" ref="P14:P16" si="2">I14</f>
@@ -4792,37 +4707,37 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="26"/>
+      <c r="U14" s="25"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="52">
+      <c r="A15" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="51">
         <v>1</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="57">
+        <v>27</v>
+      </c>
+      <c r="J15" s="56">
         <v>90</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O15" s="31" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="O15" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="P15" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4835,37 +4750,37 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="26"/>
+      <c r="U15" s="25"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="52">
+      <c r="A16" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="51">
         <v>1</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
       <c r="I16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="57">
+        <v>27</v>
+      </c>
+      <c r="J16" s="56">
         <v>100</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O16" s="31" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="P16" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4878,147 +4793,147 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="26"/>
+      <c r="U16" s="25"/>
     </row>
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="52">
+        <v>1</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="57">
+        <v>120</v>
+      </c>
+      <c r="K17" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="28"/>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="31">
+        <v>1</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="53">
-        <v>1</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="58">
-        <v>120</v>
-      </c>
-      <c r="K17" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="29"/>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="32">
-        <v>1</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="55">
+      <c r="I18" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="54">
         <v>80</v>
       </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="O18" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="P18" s="40" t="str">
+      <c r="K18" s="37"/>
+      <c r="L18" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="39" t="str">
         <f>I18</f>
         <v>today</v>
       </c>
-      <c r="Q18" s="40">
+      <c r="Q18" s="39">
         <f>J18</f>
         <v>80</v>
       </c>
-      <c r="R18" s="40">
+      <c r="R18" s="39">
         <v>70</v>
       </c>
-      <c r="S18" s="40">
+      <c r="S18" s="39">
         <v>100</v>
       </c>
-      <c r="T18" s="40">
+      <c r="T18" s="39">
         <v>85</v>
       </c>
-      <c r="U18" s="40"/>
+      <c r="U18" s="39"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="51">
-        <v>1</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="56">
+      <c r="A19" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="50">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="55">
         <v>10</v>
       </c>
-      <c r="K19" s="44"/>
-      <c r="L19" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="O19" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="P19" s="44" t="str">
+      <c r="K19" s="43"/>
+      <c r="L19" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" s="43" t="str">
         <f>I22</f>
         <v>today</v>
       </c>
@@ -5026,49 +4941,49 @@
         <f>J19</f>
         <v>10</v>
       </c>
-      <c r="R19" s="44">
+      <c r="R19" s="43">
         <f>MIN(J19:J22)</f>
         <v>10</v>
       </c>
-      <c r="S19" s="44">
+      <c r="S19" s="43">
         <f>MAX(J19:J22)</f>
         <v>40</v>
       </c>
-      <c r="T19" s="44">
+      <c r="T19" s="43">
         <f>AVERAGE(J19:J22)</f>
         <v>25</v>
       </c>
-      <c r="U19" s="24"/>
+      <c r="U19" s="23"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="52">
+      <c r="A20" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="51">
         <v>1</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="57">
+        <v>27</v>
+      </c>
+      <c r="J20" s="56">
         <v>20</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O20" s="44" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="O20" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="P20" s="3" t="str">
         <f>I21</f>
@@ -5081,37 +4996,37 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-      <c r="U20" s="26"/>
+      <c r="U20" s="25"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="52">
+      <c r="A21" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="51">
         <v>1</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="57">
+        <v>27</v>
+      </c>
+      <c r="J21" s="56">
         <v>30</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O21" s="44" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="O21" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="P21" s="3" t="str">
         <f>I20</f>
@@ -5124,37 +5039,37 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-      <c r="U21" s="26"/>
+      <c r="U21" s="25"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="52">
+      <c r="A22" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="51">
         <v>1</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="57">
+        <v>27</v>
+      </c>
+      <c r="J22" s="56">
         <v>40</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O22" s="44" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="O22" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="P22" s="3" t="str">
         <f>I19</f>
@@ -5167,87 +5082,87 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="U22" s="26"/>
+      <c r="U22" s="25"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="53">
-        <v>1</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="J23" s="58">
+      <c r="A23" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="52">
+        <v>1</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="57">
         <v>50</v>
       </c>
-      <c r="K23" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="29"/>
+      <c r="K23" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="28"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="51">
-        <v>1</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I24" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" s="56">
+      <c r="A24" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="50">
+        <v>1</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="55">
         <v>5</v>
       </c>
-      <c r="K24" s="44"/>
-      <c r="L24" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="M24" s="44"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="43"/>
       <c r="N24" s="3" t="str">
         <f ca="1">"Monthly Report as of for " &amp; TEXT(TODAY(),"mmmm")</f>
         <v>Monthly Report as of for October</v>
       </c>
-      <c r="O24" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="P24" s="44" t="str">
+      <c r="O24" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="P24" s="43" t="str">
         <f>I24</f>
         <v>today</v>
       </c>
@@ -5255,36 +5170,36 @@
         <f>J24</f>
         <v>5</v>
       </c>
-      <c r="R24" s="44">
+      <c r="R24" s="43">
         <f>MIN(J24:J27)</f>
         <v>5</v>
       </c>
-      <c r="S24" s="44">
+      <c r="S24" s="43">
         <f>MAX(J24:J27)</f>
         <v>150</v>
       </c>
-      <c r="T24" s="44"/>
-      <c r="U24" s="24"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="23"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="52">
+      <c r="A25" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="51">
         <v>1</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="57">
+        <v>27</v>
+      </c>
+      <c r="J25" s="56">
         <v>20</v>
       </c>
       <c r="K25" s="3"/>
@@ -5294,8 +5209,8 @@
         <f ca="1">"Monthly Report as of for " &amp; TEXT(TODAY(),"mmmm")</f>
         <v>Monthly Report as of for October</v>
       </c>
-      <c r="O25" s="31" t="s">
-        <v>61</v>
+      <c r="O25" s="30" t="s">
+        <v>47</v>
       </c>
       <c r="P25" s="3" t="str">
         <f t="shared" ref="P25:P27" si="5">I25</f>
@@ -5308,27 +5223,27 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-      <c r="U25" s="26"/>
+      <c r="U25" s="25"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="52">
+      <c r="A26" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="51">
         <v>1</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J26" s="57">
+        <v>27</v>
+      </c>
+      <c r="J26" s="56">
         <v>30</v>
       </c>
       <c r="K26" s="3"/>
@@ -5338,8 +5253,8 @@
         <f ca="1">"Monthly Report as of for " &amp; TEXT(TODAY(),"mmmm")</f>
         <v>Monthly Report as of for October</v>
       </c>
-      <c r="O26" s="31" t="s">
-        <v>61</v>
+      <c r="O26" s="30" t="s">
+        <v>47</v>
       </c>
       <c r="P26" s="3" t="str">
         <f t="shared" si="5"/>
@@ -5352,27 +5267,27 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-      <c r="U26" s="26"/>
+      <c r="U26" s="25"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="52">
+      <c r="A27" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="51">
         <v>1</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
       <c r="I27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J27" s="57">
+        <v>27</v>
+      </c>
+      <c r="J27" s="56">
         <v>150</v>
       </c>
       <c r="K27" s="3"/>
@@ -5382,8 +5297,8 @@
         <f ca="1">"Monthly Report as of for " &amp; TEXT(TODAY(),"mmmm")</f>
         <v>Monthly Report as of for October</v>
       </c>
-      <c r="O27" s="31" t="s">
-        <v>61</v>
+      <c r="O27" s="30" t="s">
+        <v>47</v>
       </c>
       <c r="P27" s="3" t="str">
         <f t="shared" si="5"/>
@@ -5396,87 +5311,87 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-      <c r="U27" s="26"/>
+      <c r="U27" s="25"/>
     </row>
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="53">
-        <v>1</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="J28" s="58">
+      <c r="A28" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="52">
+        <v>1</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="57">
         <v>50</v>
       </c>
-      <c r="K28" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="29"/>
+      <c r="K28" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="28"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="51">
-        <v>1</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I29" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="J29" s="56">
+      <c r="A29" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="50">
+        <v>1</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="55">
         <v>10</v>
       </c>
-      <c r="K29" s="44"/>
-      <c r="L29" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="M29" s="44"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="43"/>
       <c r="N29" s="3" t="str">
         <f ca="1">"Daily Report as of " &amp; TEXT(TODAY(),"yyyy-mm-dd")</f>
         <v>Daily Report as of 2016-10-13</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P29" s="44" t="str">
+        <v>27</v>
+      </c>
+      <c r="P29" s="43" t="str">
         <f>I29</f>
         <v>today</v>
       </c>
@@ -5484,39 +5399,39 @@
         <f>J29</f>
         <v>10</v>
       </c>
-      <c r="R29" s="44">
+      <c r="R29" s="43">
         <f>MIN(J29:J32)</f>
         <v>10</v>
       </c>
-      <c r="S29" s="44">
+      <c r="S29" s="43">
         <f>MAX(J29:J32)</f>
         <v>40</v>
       </c>
-      <c r="T29" s="44">
+      <c r="T29" s="43">
         <f>AVERAGE(J29:J32)</f>
         <v>25</v>
       </c>
-      <c r="U29" s="24"/>
+      <c r="U29" s="23"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="52">
+      <c r="A30" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="51">
         <v>1</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
       <c r="I30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J30" s="57">
+        <v>27</v>
+      </c>
+      <c r="J30" s="56">
         <v>20</v>
       </c>
       <c r="K30" s="3"/>
@@ -5527,7 +5442,7 @@
         <v>Daily Report as of 2016-10-13</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="P30" s="3" t="str">
         <f t="shared" ref="P30:P32" si="7">I30</f>
@@ -5540,27 +5455,27 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
-      <c r="U30" s="26"/>
+      <c r="U30" s="25"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="52">
+      <c r="A31" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="51">
         <v>1</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J31" s="57">
+        <v>27</v>
+      </c>
+      <c r="J31" s="56">
         <v>30</v>
       </c>
       <c r="K31" s="3"/>
@@ -5571,7 +5486,7 @@
         <v>Daily Report as of 2016-10-13</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="P31" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5584,27 +5499,27 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
-      <c r="U31" s="26"/>
+      <c r="U31" s="25"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="52">
+      <c r="A32" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="51">
         <v>1</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
       <c r="I32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32" s="57">
+        <v>27</v>
+      </c>
+      <c r="J32" s="56">
         <v>40</v>
       </c>
       <c r="K32" s="3"/>
@@ -5615,7 +5530,7 @@
         <v>Daily Report as of 2016-10-13</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="P32" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5628,84 +5543,84 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-      <c r="U32" s="26"/>
+      <c r="U32" s="25"/>
     </row>
     <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="53">
-        <v>1</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="J33" s="58">
+      <c r="A33" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="52">
+        <v>1</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="57">
         <v>50</v>
       </c>
-      <c r="K33" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="29"/>
+      <c r="K33" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="28"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="51">
-        <v>1</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="43" t="s">
+      <c r="A34" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="50">
+        <v>1</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="55">
+        <v>15</v>
+      </c>
+      <c r="K34" s="43"/>
+      <c r="L34" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H34" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I34" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="J34" s="56">
-        <v>15</v>
-      </c>
-      <c r="K34" s="44"/>
-      <c r="L34" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="M34" s="44"/>
+      <c r="M34" s="43"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P34" s="44" t="str">
+        <v>48</v>
+      </c>
+      <c r="P34" s="43" t="str">
         <f>I34</f>
         <v>10/6/16 @ 11:55 AM</v>
       </c>
@@ -5713,39 +5628,39 @@
         <f>J34</f>
         <v>15</v>
       </c>
-      <c r="R34" s="44">
+      <c r="R34" s="43">
         <f>MIN(J34:J37)</f>
         <v>15</v>
       </c>
-      <c r="S34" s="44">
+      <c r="S34" s="43">
         <f>MAX(J34:J37)</f>
         <v>45</v>
       </c>
-      <c r="T34" s="44">
+      <c r="T34" s="43">
         <f>AVERAGE(J34:J37)</f>
         <v>30</v>
       </c>
-      <c r="U34" s="24"/>
+      <c r="U34" s="23"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="52">
+      <c r="A35" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="51">
         <v>1</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
       <c r="I35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J35" s="57">
+        <v>58</v>
+      </c>
+      <c r="J35" s="56">
         <v>25</v>
       </c>
       <c r="K35" s="3"/>
@@ -5753,7 +5668,7 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="P35" s="3" t="str">
         <f t="shared" ref="P35:P37" si="9">I35</f>
@@ -5775,27 +5690,27 @@
         <f>AVERAGE(J34:J37)</f>
         <v>30</v>
       </c>
-      <c r="U35" s="26"/>
+      <c r="U35" s="25"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="52">
+      <c r="A36" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="51">
         <v>1</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
       <c r="I36" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J36" s="57">
+        <v>44</v>
+      </c>
+      <c r="J36" s="56">
         <v>35</v>
       </c>
       <c r="K36" s="3"/>
@@ -5803,7 +5718,7 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="P36" s="3" t="str">
         <f t="shared" si="9"/>
@@ -5825,27 +5740,27 @@
         <f>AVERAGE(J34:J37)</f>
         <v>30</v>
       </c>
-      <c r="U36" s="26"/>
+      <c r="U36" s="25"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="52">
+      <c r="A37" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="51">
         <v>1</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
       <c r="I37" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J37" s="57">
+        <v>45</v>
+      </c>
+      <c r="J37" s="56">
         <v>45</v>
       </c>
       <c r="K37" s="3"/>
@@ -5853,7 +5768,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="P37" s="3" t="str">
         <f t="shared" si="9"/>
@@ -5875,70 +5790,70 @@
         <f>AVERAGE(J34:J37)</f>
         <v>30</v>
       </c>
-      <c r="U37" s="26"/>
+      <c r="U37" s="25"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="53">
-        <v>1</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="J38" s="58">
+      <c r="A38" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="52">
+        <v>1</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" s="57">
         <v>50</v>
       </c>
-      <c r="K38" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="49"/>
-      <c r="R38" s="49"/>
-      <c r="S38" s="49"/>
-      <c r="T38" s="49"/>
-      <c r="U38" s="29"/>
+      <c r="K38" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="28"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="52">
+      <c r="A39" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="51">
         <v>1</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="H39" s="41" t="s">
-        <v>78</v>
+        <v>4</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>64</v>
       </c>
       <c r="I39" s="3"/>
-      <c r="J39" s="57"/>
+      <c r="J39" s="56"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -5949,7 +5864,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-      <c r="U39" s="26"/>
+      <c r="U39" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
